--- a/Scenarios.xlsx
+++ b/Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tprem\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{280398E0-F97A-4FC3-92A4-1791028A940C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD95919-D176-425D-8147-47213B905660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{0CC3627A-79DB-4F87-97DD-7446C379C870}"/>
   </bookViews>
@@ -30,7 +30,7 @@
     <author>Aditya Yarlagadda</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{A4329E96-3534-4333-8D3F-5A4AC7DF7292}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{A4329E96-3534-4333-8D3F-5A4AC7DF7292}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t xml:space="preserve">Sathya Varma </t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t xml:space="preserve">Thirupati </t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>this my new update</t>
   </si>
 </sst>
 </file>
@@ -655,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5AEABEC-642C-4482-B7C6-D679740C8D32}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,269 +677,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
